--- a/DataTable/bin/Debug/Excel/Test.xlsx
+++ b/DataTable/bin/Debug/Excel/Test.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataTable\DataTable\bin\Debug\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DataTable\DataTable\bin\Debug\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E49E89-E84D-4B15-AC3A-C899623C3D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>dic&lt;string,float&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,22 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kv表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum</t>
   </si>
   <si>
@@ -175,10 +154,6 @@
     <t>Bow</t>
   </si>
   <si>
-    <t>枚举</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>aad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,13 +171,77 @@
   </si>
   <si>
     <t>1,1,0.22,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,6 +286,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -526,11 +569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD36"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -544,176 +587,164 @@
     <col min="12" max="14" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>39</v>
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1">
-        <v>123</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="1">
+      <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="1">
+      <c r="J4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>10</v>
+      <c r="K4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>22.01</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="1">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
@@ -731,30 +762,30 @@
         <v>10</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>44.44</v>
+        <v>22.01</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="1">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
@@ -772,30 +803,30 @@
         <v>10</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>9.33</v>
+        <v>44.44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="1">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
@@ -807,13 +838,54 @@
         <v>5</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9.33</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="E8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1">
+        <v>31</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable/bin/Debug/Excel/Test.xlsx
+++ b/DataTable/bin/Debug/Excel/Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>dic&lt;string,float&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,59 +182,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,10 +282,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -570,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -587,53 +579,92 @@
     <col min="12" max="14" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -681,70 +712,67 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1">
+        <v>123</v>
+      </c>
+      <c r="I4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="1">
         <v>4</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="1">
         <v>5</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>8</v>
+      <c r="L4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>2.2999999999999998</v>
+        <v>22.01</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="1">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
@@ -762,30 +790,30 @@
         <v>10</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>22.01</v>
+        <v>44.44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="1">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
@@ -803,30 +831,30 @@
         <v>10</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>44.44</v>
+        <v>9.33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="1">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
@@ -838,53 +866,12 @@
         <v>5</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>9.33</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="1">
-        <v>31</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1">
-        <v>4</v>
-      </c>
-      <c r="K8" s="1">
-        <v>5</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="1" t="s">
         <v>31</v>
       </c>
     </row>

--- a/DataTable/bin/Debug/Excel/Test.xlsx
+++ b/DataTable/bin/Debug/Excel/Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataTable\DataTable\bin\Debug\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cpp\DataTable\DataTable\bin\Debug\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C3EC29-CD1F-4090-BEDB-2990F87CF69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1541C71-7324-4F7C-951C-9B457A99B5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10170" yWindow="2445" windowWidth="16740" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>dic&lt;string,float&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,21 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>Sword</t>
-  </si>
-  <si>
-    <t>Magic</t>
-  </si>
-  <si>
-    <t>Bow</t>
-  </si>
-  <si>
     <t>aad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,10 +205,6 @@
   </si>
   <si>
     <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -578,7 +559,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -592,53 +573,50 @@
     <col min="13" max="15" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
@@ -656,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>17</v>
@@ -679,13 +657,10 @@
       <c r="N2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>20</v>
@@ -724,11 +699,8 @@
       <c r="N3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -745,7 +717,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -768,25 +740,22 @@
       <c r="N4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -794,7 +763,7 @@
         <v>22.01</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="b">
         <v>0</v>
@@ -803,7 +772,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>18</v>
@@ -826,11 +795,8 @@
       <c r="N6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -838,7 +804,7 @@
         <v>44.44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="b">
         <v>1</v>
@@ -847,7 +813,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>18</v>
@@ -870,11 +836,8 @@
       <c r="N7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -882,7 +845,7 @@
         <v>9.33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="b">
         <v>0</v>
@@ -891,7 +854,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>18</v>
@@ -909,13 +872,10 @@
         <v>5</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
